--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.366</v>
+        <v>16.331</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.835</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.533</v>
+        <v>14.06</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.95</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.042</v>
+        <v>7.058</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.88921375776933</v>
+        <v>5.807275209249354</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.30251030596925</v>
+        <v>10.66486741658918</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.63427903891571</v>
+        <v>16.10276070301434</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.495173312469944</v>
+        <v>-2.795986757483632</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.69749136915914</v>
+        <v>11.11563460329433</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.42601993099314</v>
+        <v>13.22848393437247</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5165650413453626</v>
+        <v>1.864376465952535</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.91745735422835</v>
+        <v>23.73849005563528</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.70024367345378</v>
+        <v>26.22348369737319</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.51662056477361</v>
+        <v>17.56700603343933</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.26578242570815</v>
+        <v>21.37077775886416</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.90476455403534</v>
+        <v>26.63309153092884</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.791001310988452</v>
+        <v>4.708722950039583</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.66098848574862</v>
+        <v>11.25283575944236</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.65752046263937</v>
+        <v>21.54389636402783</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.74317798763187</v>
+        <v>11.54270758466607</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.07855332930963</v>
+        <v>26.77696221781959</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.48567788278557</v>
+        <v>34.90536723321964</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.6841235533817489</v>
+        <v>0.766248562117525</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.41631595865578</v>
+        <v>14.19093871701538</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.07884934197481</v>
+        <v>22.67430478904176</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2711789153799025</v>
+        <v>3.241233534486245</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>33.85974880921731</v>
+        <v>30.90183292555036</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50.39810403832067</v>
+        <v>44.09543636187146</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.10192750101073</v>
+        <v>31.59230813958615</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>54.61838502375284</v>
+        <v>45.30719659110922</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68.26244455936754</v>
+        <v>54.90238879830714</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.212876679514732</v>
+        <v>6.38354488903898</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.28136033804526</v>
+        <v>33.55817751096875</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>54.77358781160542</v>
+        <v>44.36211344374722</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13.95265557920735</v>
+        <v>14.87197537153826</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.152541118062</v>
+        <v>30.84757810953762</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.66333469008657</v>
+        <v>38.0252702958218</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.6112718924898495</v>
+        <v>0.1124741356570809</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20.77034986958824</v>
+        <v>18.62876911896936</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.66243019123962</v>
+        <v>25.941363767665</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.382368602504769</v>
+        <v>4.819665008373629</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.78844967704423</v>
+        <v>37.62642202000976</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.35208051110794</v>
+        <v>51.15488775126506</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.11960703146444</v>
+        <v>46.69429809413396</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.11090804134838</v>
+        <v>57.44783879904722</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>76.09747961722411</v>
+        <v>66.96999090083406</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>12.69000451609373</v>
+        <v>11.61976571287201</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>55.72341736023976</v>
+        <v>43.72785616989342</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>65.37653102652615</v>
+        <v>55.51026658282072</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.823558520525332</v>
+        <v>6.42271863295203</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.78672089569864</v>
+        <v>30.37413956383172</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.76774488922513</v>
+        <v>36.64052506705828</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.9562980035549451</v>
+        <v>4.108853787664628</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.18495186514714</v>
+        <v>33.54772229981891</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>39.92451743611098</v>
+        <v>37.37345796396192</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.600032844999777</v>
+        <v>7.606842172873939</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>62.13780683284534</v>
+        <v>56.63558496853574</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.58488853486054</v>
+        <v>59.30376537241978</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56.34820535582696</v>
+        <v>47.64575771274176</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.10620200217656</v>
+        <v>53.70063602517071</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.58721709868563</v>
+        <v>55.94283691977227</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3.494984831462084</v>
+        <v>8.353821491453495</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45.66898688201037</v>
+        <v>40.23355203568229</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>54.87095864145521</v>
+        <v>48.39001976062816</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.145073660407231</v>
+        <v>7.091683251168565</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.46940347579224</v>
+        <v>31.5438919805665</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.93518855843412</v>
+        <v>37.6009765701582</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-2.16497995302926</v>
+        <v>1.890969788103082</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.64911717074543</v>
+        <v>23.19436226856098</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.12609312991393</v>
+        <v>32.23884914216871</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-0.6004355729054716</v>
+        <v>2.18906814512691</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>49.14949972679919</v>
+        <v>44.85103441197137</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>59.1514009079208</v>
+        <v>53.25795303188078</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.06323710015768</v>
+        <v>44.26786175882095</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>62.30754768777199</v>
+        <v>56.87192096593142</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>69.10087416935315</v>
+        <v>63.17213331957115</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.3602761845387761</v>
+        <v>5.067686306233867</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>52.80191043973808</v>
+        <v>46.88765533399479</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>59.33077350728376</v>
+        <v>53.1698776622319</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.441091000529532</v>
+        <v>9.515940009180245</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.56581081110262</v>
+        <v>36.11522790644047</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.8703267498189</v>
+        <v>43.77754024653534</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-2.104885537971679</v>
+        <v>0.01749507327823352</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.48301166390291</v>
+        <v>28.03645988531073</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.83383745036127</v>
+        <v>36.63927640755139</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-0.9131499632923443</v>
+        <v>2.495163919793271</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>60.06737980768588</v>
+        <v>53.61075718382482</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>76.97293942314582</v>
+        <v>66.88590548540316</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>64.08881048723936</v>
+        <v>56.66397148135428</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>78.25431829776772</v>
+        <v>70.53471336946953</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>87.02146795526617</v>
+        <v>78.85589968682939</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.54653381421382</v>
+        <v>4.611614501074165</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>63.8248485224718</v>
+        <v>55.73331661411709</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>71.79507214247016</v>
+        <v>63.52987864778449</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.89670896532075</v>
+        <v>15.929093589137</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.12797235056089</v>
+        <v>29.55907685424488</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.25744809895363</v>
+        <v>34.04961267918728</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.568598119493885</v>
+        <v>4.460554779043939</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.21248993511906</v>
+        <v>29.46536872326505</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.59379491405914</v>
+        <v>31.51308012790926</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.804029917840811</v>
+        <v>9.721478631707489</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58.16945133501763</v>
+        <v>53.32273993602584</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>59.91515564877436</v>
+        <v>51.99396216809101</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>45.22378785470953</v>
+        <v>41.36517718541141</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>57.18142374376043</v>
+        <v>50.30378983884565</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>54.58959680267576</v>
+        <v>50.26897631226529</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.87008958365689</v>
+        <v>18.22802740324374</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.6592253470708</v>
+        <v>33.32475258106213</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.73082633658314</v>
+        <v>40.58232013848119</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.55882438176105</v>
+        <v>19.23489326415731</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.29043934596913</v>
+        <v>37.33448544603425</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.50285313002763</v>
+        <v>41.46892749627523</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.5936605286365229</v>
+        <v>4.106100077342713</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.05755457194234</v>
+        <v>27.14936820250513</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.25716565829419</v>
+        <v>33.2403861267826</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.599146293517087</v>
+        <v>6.164299427448753</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.37469608549071</v>
+        <v>48.79252031745601</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>61.4360133670955</v>
+        <v>54.51472707477765</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.19685974278834</v>
+        <v>47.7579174142912</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.74229160942835</v>
+        <v>60.70235414944253</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>69.75599849479156</v>
+        <v>63.78237072903671</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.72731870764957</v>
+        <v>19.07631426160087</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>52.79824392673324</v>
+        <v>46.94637137400825</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.13922130481457</v>
+        <v>53.49168593346335</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.15019529212483</v>
+        <v>20.61092382495703</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.44613112425102</v>
+        <v>38.79712369141075</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.0872857382101</v>
+        <v>45.40715175723592</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.01380177783523351</v>
+        <v>1.633302126983949</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.86782287421491</v>
+        <v>29.83715405382461</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.84510322898151</v>
+        <v>35.77182177007589</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2.584324234594661</v>
+        <v>5.435277416827226</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>60.34474132083899</v>
+        <v>54.58531544289593</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.16561409404926</v>
+        <v>65.33380827544859</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.4746020600212</v>
+        <v>58.39700348470194</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.43071547620491</v>
+        <v>71.20075518427458</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.07661246417595</v>
+        <v>77.36024481987698</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.7135308198846</v>
+        <v>19.93379097262667</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>64.18282689814752</v>
+        <v>55.83817379733804</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.64891345436995</v>
+        <v>63.80361111496511</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.955004819597026</v>
+        <v>6.416098056090135</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.45367551218495</v>
+        <v>11.75747781109247</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.98675891672415</v>
+        <v>16.39104010635942</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-4.072490825227984</v>
+        <v>-2.255907034419049</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.25384084202113</v>
+        <v>10.83141963883462</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.1682806560042</v>
+        <v>13.95927852860953</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.602502579771421</v>
+        <v>3.46096006354723</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.90723611476647</v>
+        <v>24.1759750032275</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.01982218847708</v>
+        <v>26.98072367160975</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.47230208415848</v>
+        <v>20.12849805726957</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.860582691606</v>
+        <v>23.51460365835542</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.08504556294397</v>
+        <v>29.54904675766583</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>52.6602234459837</v>
+        <v>21.83797296773452</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>54.44907367177163</v>
+        <v>28.58998258049131</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>56.37722036240879</v>
+        <v>36.86408296597709</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.026131533530457</v>
+        <v>10.60393727232799</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.94517748357735</v>
+        <v>26.18652342376072</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.94645620920042</v>
+        <v>33.05311936265581</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.83183949651529</v>
+        <v>-0.214989858058992</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15.2238997199019</v>
+        <v>13.2716295168899</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.58611209154383</v>
+        <v>21.60491596229964</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.311339559028966</v>
+        <v>2.280165714142328</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.44552394884525</v>
+        <v>26.8374005006266</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>50.93924649418489</v>
+        <v>39.76247369247972</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.71367272290699</v>
+        <v>26.68874603428569</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>52.39562777298711</v>
+        <v>40.82764954734712</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>64.15460073652713</v>
+        <v>51.63795278865875</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.742668308424243</v>
+        <v>10.43997562105154</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.0767907632553</v>
+        <v>36.15657302362472</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.91999492862799</v>
+        <v>44.17853275568358</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.86442339329545</v>
+        <v>17.84839490029973</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.77116517942522</v>
+        <v>31.71093655707062</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.1628702523795</v>
+        <v>37.84559658875</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.6371819627874373</v>
+        <v>0.3180669143178427</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.29714820155736</v>
+        <v>18.09792258427557</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.7595429811976</v>
+        <v>24.88910530589769</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>6.837522894860872</v>
+        <v>6.440396806719267</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.51271958690751</v>
+        <v>35.78088963458286</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>59.00270650285061</v>
+        <v>49.92760855603265</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.67684903528396</v>
+        <v>41.44974213272415</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>59.28145100258727</v>
+        <v>52.63116743239102</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>74.1696467439337</v>
+        <v>65.17268977695187</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.11061722949296</v>
+        <v>17.08659715714997</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>56.95614882223076</v>
+        <v>46.87403539624952</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>62.88937156145256</v>
+        <v>54.72410312840952</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.64369412363454</v>
+        <v>11.77612459575169</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.04517266171536</v>
+        <v>24.77133589059365</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.2121315234984</v>
+        <v>29.39361602253927</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.06912185634370616</v>
+        <v>3.283339794091738</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.60433462896601</v>
+        <v>27.53745120148253</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.4390105930638</v>
+        <v>31.02359316099459</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.995312119036388</v>
+        <v>9.991492324476237</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>58.98918983990799</v>
+        <v>50.00660665173174</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>59.86109754623965</v>
+        <v>50.85394111201828</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.829564635607</v>
+        <v>34.44007667482636</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.21331863290281</v>
+        <v>41.12060858671786</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>53.08346226153657</v>
+        <v>43.69960759996699</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>15.71858867135338</v>
+        <v>16.54204757090657</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.41960776366048</v>
+        <v>25.46362627352295</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.74749440690993</v>
+        <v>33.51206518131217</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.56458849038168</v>
+        <v>23.23336895682031</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>46.0946950008438</v>
+        <v>40.79606859986782</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>45.59858557895435</v>
+        <v>43.311502071866</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.686041701689877</v>
+        <v>8.329203335920553</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.15856166184472</v>
+        <v>29.59251463547579</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.61559072804345</v>
+        <v>35.07870036595628</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4.893714580900486</v>
+        <v>12.97336984467769</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>57.4717563714442</v>
+        <v>51.39113372728636</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>61.61219786570619</v>
+        <v>57.08966865683784</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>57.3752422374417</v>
+        <v>50.00120303354778</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>70.78242935884924</v>
+        <v>63.01854366724681</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>76.18234967320018</v>
+        <v>67.57996691552923</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.67654177588501</v>
+        <v>27.42949394926327</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>59.95297875976112</v>
+        <v>52.19848805622143</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>64.44126258312798</v>
+        <v>57.26143781826087</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.35729326500078</v>
+        <v>22.66512753818306</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.27460094074971</v>
+        <v>40.29765350986378</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.42694465806893</v>
+        <v>43.36849804885961</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-0.3773338124685317</v>
+        <v>3.342195184223133</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.42456561215431</v>
+        <v>27.232918917008</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.62153849628923</v>
+        <v>32.60688800181219</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4.213757695540963</v>
+        <v>9.514171011252795</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>58.66620160516213</v>
+        <v>52.6520531077054</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>68.65253137192263</v>
+        <v>62.21892557933786</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>64.17982450515817</v>
+        <v>56.93899783128175</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>75.85413918736748</v>
+        <v>67.94832927649885</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>82.25065761439097</v>
+        <v>74.76943140590551</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.40266833850785</v>
+        <v>24.95303443168081</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.52707927389143</v>
+        <v>55.26736264116889</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>73.84646124564668</v>
+        <v>63.37473522153095</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.232594471896213</v>
+        <v>9.395857035080162</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.73306003030437</v>
+        <v>24.43603085239839</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>33.50731593548011</v>
+        <v>30.84398223210927</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.606133744530357</v>
+        <v>4.408649050723639</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>35.00332038892574</v>
+        <v>31.92581209159535</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>38.07828564029973</v>
+        <v>35.09633707963721</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>6.624974789196393</v>
+        <v>8.965917951271546</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.63859466285973</v>
+        <v>55.57310670865485</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.61520412368422</v>
+        <v>56.66814324235512</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.85253694382607</v>
+        <v>35.37823292797973</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.93505881164707</v>
+        <v>42.6569276330802</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.97892419458969</v>
+        <v>44.90973837606349</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.398372691451517</v>
+        <v>7.044813446872407</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.27319558044812</v>
+        <v>21.3388831700456</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15.69113734204267</v>
+        <v>27.48076981148034</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.91835975948855</v>
+        <v>19.26633085442813</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.97217463712443</v>
+        <v>42.08528441163715</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>47.11724774774297</v>
+        <v>44.77033979743136</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1.318730049433139</v>
+        <v>5.143674433260031</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.76352527645848</v>
+        <v>33.58950214022274</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>41.48336549980207</v>
+        <v>38.72207582143126</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>3.265279828812357</v>
+        <v>8.425322064289791</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>65.41096144581567</v>
+        <v>58.59441391401656</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>67.37719092766881</v>
+        <v>61.51407692916838</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>58.0862396966947</v>
+        <v>52.39590895499727</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.53095842369613</v>
+        <v>64.44170207933745</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>76.0841469646777</v>
+        <v>69.94469923818465</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.80999649033564</v>
+        <v>18.07192009244644</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>64.71144070770882</v>
+        <v>57.54618834881686</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>68.30302297162919</v>
+        <v>61.0483716251665</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21.9368044779666</v>
+        <v>21.55655495626467</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.20350564768125</v>
+        <v>42.25247520050074</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.13717800384294</v>
+        <v>47.29034503477861</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.4529708178985068</v>
+        <v>2.504159107898129</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.31670772224909</v>
+        <v>30.34205815547065</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.54014304591422</v>
+        <v>36.04782797346255</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.671748491566952</v>
+        <v>7.272412464144001</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>64.45671745301523</v>
+        <v>58.85322210632393</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>74.81875309227422</v>
+        <v>68.46626030403377</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>65.94889521606817</v>
+        <v>59.42113044758696</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>79.022034925345</v>
+        <v>71.79491423004859</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>84.42739841397767</v>
+        <v>77.36330741671642</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>14.70390284429755</v>
+        <v>15.17362287991847</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>67.40411323608605</v>
+        <v>59.46338311137873</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>73.48568368069235</v>
+        <v>65.92328847693068</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2.945517129737201</v>
+        <v>3.391499025733307</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>6.475690296176204</v>
+        <v>6.144056468423479</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>9.163790976233063</v>
+        <v>10.04617563246844</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-3.256964417448014</v>
+        <v>-1.317681907373952</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8.734465918530681</v>
+        <v>9.69094287810444</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>10.33187698968686</v>
+        <v>11.27788626143497</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-0.3417563835904858</v>
+        <v>1.283424201410092</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.26111012906785</v>
+        <v>18.13060257348167</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.41727432788426</v>
+        <v>20.62195683025402</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.79893546211193</v>
+        <v>18.47016742181712</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.80084352518584</v>
+        <v>24.44593036668656</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.48342112388441</v>
+        <v>24.83560550926817</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6.814506203143928</v>
+        <v>4.627647587860668</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.22673360269692</v>
+        <v>9.632703490220972</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.29841652000987</v>
+        <v>15.77509441627731</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.6607638737316</v>
+        <v>9.796390041782868</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.14294258790247</v>
+        <v>24.3365234379598</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.74933113938956</v>
+        <v>31.24091138857122</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.5510107162806399</v>
+        <v>2.890027892785078</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.48076241155814</v>
+        <v>17.03005222738837</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.36078233365798</v>
+        <v>25.04300854532809</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1.424459329424067</v>
+        <v>3.744090984623121</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.77968690307653</v>
+        <v>31.53221917744728</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.50034791183224</v>
+        <v>42.18164806779998</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.03897689263033</v>
+        <v>31.35438808838317</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.62220530727993</v>
+        <v>43.31376571366901</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.00461748239404</v>
+        <v>47.88921813527965</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>7.078700829044614</v>
+        <v>6.60184744521057</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>37.27938739199325</v>
+        <v>32.89838080686395</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>44.60733179207003</v>
+        <v>40.41490633167266</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>9.794130484401361</v>
+        <v>11.18758048410425</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.43362751738935</v>
+        <v>26.807117795016</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.23422665484117</v>
+        <v>35.08345412622201</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-0.3848069948009787</v>
+        <v>1.070229680505747</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.32954590183724</v>
+        <v>20.93329914993983</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.97919088018733</v>
+        <v>28.02223173334731</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>3.270591163325363</v>
+        <v>5.15198347685153</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>44.05283944982982</v>
+        <v>39.58974882103068</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>55.42278986926715</v>
+        <v>50.91685393636648</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>54.53691755244016</v>
+        <v>47.98473218142729</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.20586471897269</v>
+        <v>60.06289619182135</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>70.26245485847014</v>
+        <v>63.7244681632415</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>18.14322299534953</v>
+        <v>15.30088003267911</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>53.25599408162235</v>
+        <v>46.30546050819555</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>62.27432985813744</v>
+        <v>55.25901214557825</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>2.144628580713228</v>
+        <v>2.237848136480231</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>5.541391775503261</v>
+        <v>4.937705292885852</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.58407163955697</v>
+        <v>11.30015573228808</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.293628932293082</v>
+        <v>-1.333134817947425</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.114170303051402</v>
+        <v>7.948209733822939</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.26261479542482</v>
+        <v>12.09803901037844</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.1126802001027016</v>
+        <v>-0.007894116043139832</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>14.23140865841679</v>
+        <v>16.50222045870339</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.15475243814037</v>
+        <v>19.86698560262151</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>9.029782607950469</v>
+        <v>9.514733368373868</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.54087872017741</v>
+        <v>15.65566172878994</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.76499861919314</v>
+        <v>20.17040975568115</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4.927183338522898</v>
+        <v>3.372991590221861</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>6.962988916138592</v>
+        <v>5.435326870203131</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>7.565647352908421</v>
+        <v>9.84170740301299</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-0.1151753408365614</v>
+        <v>0.9057269694219237</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>5.536328364272592</v>
+        <v>6.63272834773252</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.07682332618518</v>
+        <v>16.38385375236258</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-3.237120532650167</v>
+        <v>-3.296197906586379</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.7718976501410566</v>
+        <v>1.349465623339263</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.3249931423888</v>
+        <v>11.55320184934978</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2.578635790664809</v>
+        <v>-4.511843128084408</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>6.724889895337391</v>
+        <v>9.055555753289653</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.67962982726932</v>
+        <v>23.99310840850754</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>6.447344673114301</v>
+        <v>8.502680923742339</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.66741200979352</v>
+        <v>25.53599637470812</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.74709578175586</v>
+        <v>37.56784568887471</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-4.016329675710693</v>
+        <v>-3.94659606961773</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>8.164947562113891</v>
+        <v>11.51332949643429</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>8.122697678729775</v>
+        <v>15.99682527145528</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1.089935319153575</v>
+        <v>4.093893051622548</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.792841580375594</v>
+        <v>10.45626070848063</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.63394846563856</v>
+        <v>22.98255255825733</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-5.125717884007862</v>
+        <v>-3.62286678169928</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>4.463854602292741</v>
+        <v>4.832100473552639</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.28985096383157</v>
+        <v>17.33831424676428</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-3.274481751297746</v>
+        <v>-2.115289069379124</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>13.04299711508015</v>
+        <v>17.1166952736879</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>43.48278311927493</v>
+        <v>37.11819152986687</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.52789248916147</v>
+        <v>23.24909829900274</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.83446376535755</v>
+        <v>38.71123969610255</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>60.88678765101326</v>
+        <v>54.51031440179047</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-3.924531021930083</v>
+        <v>-1.574998681496496</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18.74140066875998</v>
+        <v>20.69069991369238</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.1065358317772</v>
+        <v>28.27552400736299</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.55385784495166</v>
+        <v>10.9809939747718</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.58721852416492</v>
+        <v>21.53503228834813</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.97135991154619</v>
+        <v>33.31121566939211</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.928587273089818</v>
+        <v>5.533226412247309</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.83073096672638</v>
+        <v>38.49229437299612</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>45.54293205039714</v>
+        <v>40.9517234484494</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.02126008623943</v>
+        <v>12.73703738588134</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>64.47323716993552</v>
+        <v>58.49532478297969</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>70.39771380133865</v>
+        <v>61.43921905348716</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>54.25535953866129</v>
+        <v>47.61582559601101</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>61.07658225335511</v>
+        <v>53.46947265353739</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>62.66881042415352</v>
+        <v>54.3526999620798</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>43.47256392274781</v>
+        <v>26.83736020516629</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>45.72057730138319</v>
+        <v>40.59067801818635</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>71.77239555118619</v>
+        <v>55.25409482150997</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.60518493971461</v>
+        <v>12.22250734462424</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.07383363184489</v>
+        <v>27.96614954944969</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.17851706525335</v>
+        <v>34.24763468029452</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.976831208990728</v>
+        <v>-0.3307737054495412</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.36009151957101</v>
+        <v>24.11733693823114</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.6958609594984</v>
+        <v>28.67663121043984</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.6297808137988241</v>
+        <v>2.226524053970991</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>47.36660265791262</v>
+        <v>43.51906626906018</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>54.10581727483004</v>
+        <v>50.23630714113978</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.79423577592497</v>
+        <v>40.72043738091546</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>54.80716900274594</v>
+        <v>50.94242595120458</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>58.16335911901255</v>
+        <v>53.77394612572694</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.41807671894407</v>
+        <v>16.66453091694708</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>48.55390053522209</v>
+        <v>44.0952217182577</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>52.38306364217949</v>
+        <v>49.43712292103377</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.00715123113457</v>
+        <v>16.30971697732006</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.40230508184174</v>
+        <v>30.61864123045411</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.84612595358865</v>
+        <v>41.02719792002053</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.7615383233545288</v>
+        <v>2.092212899137976</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.21547950408584</v>
+        <v>30.21569908875767</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>38.16409747344014</v>
+        <v>35.86972780245881</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>3.111302377761362</v>
+        <v>6.612501067589793</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.59109735583341</v>
+        <v>52.69667975777394</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>72.08584588041943</v>
+        <v>66.02845301278145</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>60.36149296949186</v>
+        <v>55.28293544892981</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>68.99022862259497</v>
+        <v>64.23748003778257</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>76.25072172653877</v>
+        <v>70.2539046556542</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.96334851147935</v>
+        <v>19.11274898408641</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>61.58261838348963</v>
+        <v>54.6994591153661</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>72.69283463514358</v>
+        <v>64.98052841930749</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.65014064784053</v>
+        <v>5.381160626374577</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.112541125338851</v>
+        <v>7.109364986592862</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.97655382380222</v>
+        <v>13.24049677910607</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-4.386384017660017</v>
+        <v>-2.369782510953574</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.886951506100196</v>
+        <v>2.662730166744218</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.629540766962453</v>
+        <v>7.504598188838461</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.6304292395286133</v>
+        <v>1.473784356321936</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.05034240879487</v>
+        <v>14.12306385906063</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.05226204309288</v>
+        <v>17.67742736059833</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.56141966652851</v>
+        <v>11.69323554165976</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.43314578926436</v>
+        <v>14.95771051678892</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19.57188941589943</v>
+        <v>19.61712338734566</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>3.845087719939265</v>
+        <v>-0.5212621016771628</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>5.683840833365178</v>
+        <v>4.71393608127045</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.578167558411113</v>
+        <v>9.286231851884953</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.166014955409306</v>
+        <v>2.960363176178259</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.38398391842374</v>
+        <v>13.28944293498887</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.53298029045149</v>
+        <v>23.63409159443295</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-3.675432527323419</v>
+        <v>-1.603814777159869</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>5.333212392962231</v>
+        <v>4.621149515275146</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.31635375301785</v>
+        <v>17.38256900415691</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2.429334373200561</v>
+        <v>-1.28217991778245</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.7653532263118</v>
+        <v>16.92820381220638</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.83700136321136</v>
+        <v>28.83221075148785</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.08198134812396</v>
+        <v>14.37227324551595</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.09635011298865</v>
+        <v>25.07279258966634</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.23237883975411</v>
+        <v>35.57223982449551</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2.823904997300435</v>
+        <v>-2.929434956649963</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.9491549517297</v>
+        <v>17.41159619254638</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.79903050733487</v>
+        <v>24.8438474054192</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.965304818039375</v>
+        <v>8.960654091003978</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.19209814770016</v>
+        <v>19.50845727145013</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.67490680912348</v>
+        <v>30.29939022423849</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-0.4348894966262193</v>
+        <v>-0.08183250551361354</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.68478347941054</v>
+        <v>9.609609441487763</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.74523995481694</v>
+        <v>22.16949697147339</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>4.762052416317022</v>
+        <v>4.445287009453345</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.27705263279467</v>
+        <v>27.56519770149861</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>46.22207008126721</v>
+        <v>41.472487243184</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.17291653068779</v>
+        <v>30.75390564347538</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>44.20871215773499</v>
+        <v>40.01438584877216</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>62.54398382539826</v>
+        <v>55.04680572880493</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.64577571101841</v>
+        <v>7.118744279525917</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.68059975509164</v>
+        <v>30.87599557279427</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>46.99783547876552</v>
+        <v>40.38467177522169</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2.290428267375116</v>
+        <v>-2.147947386741734</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1.245010039889447</v>
+        <v>1.215896461846903</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>4.260521470477471</v>
+        <v>6.204442117305231</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-5.669464266071891</v>
+        <v>-8.360478872307091</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-0.1052227542790263</v>
+        <v>0.9518151151941474</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.15778340313156</v>
+        <v>3.33766105834086</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-6.092139806745308</v>
+        <v>-9.013344801536959</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.984079700166832</v>
+        <v>14.87869035966304</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>9.006308981908134</v>
+        <v>14.72577742487825</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.561068498957173</v>
+        <v>7.70530135149707</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.483282776663856</v>
+        <v>11.30634996813504</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>10.78591686215467</v>
+        <v>14.11463129202617</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-3.855674422811248</v>
+        <v>-6.54533285671576</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1.26079126520202</v>
+        <v>-1.324365309988046</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-1.746423936451393</v>
+        <v>1.022172350596414</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>15.66970740912226</v>
+        <v>16.7084266625211</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.19835127883386</v>
+        <v>30.32015851046376</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.59609560595885</v>
+        <v>35.48534720315853</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>2.979859809983683</v>
+        <v>5.602937612603171</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>23.35198316886737</v>
+        <v>21.61023480275395</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.95508270376816</v>
+        <v>28.81916871157764</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>5.15089348248123</v>
+        <v>7.547438779338304</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.77579723245077</v>
+        <v>40.74693273950678</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>52.37391969514283</v>
+        <v>46.35987889294043</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.64253458390047</v>
+        <v>39.87795084625238</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>54.05823016121842</v>
+        <v>49.68685802140004</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>57.69194714394321</v>
+        <v>53.84584695561304</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>15.38928810675458</v>
+        <v>14.44028727558568</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.34177455914855</v>
+        <v>39.65194700223945</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.14188376951789</v>
+        <v>44.49040373963995</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.22944999025117</v>
+        <v>20.48118377634184</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.08152088588676</v>
+        <v>35.04438847346927</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.83012523586515</v>
+        <v>42.93570667534253</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.5075060636702524</v>
+        <v>3.038866894517124</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.98055889866933</v>
+        <v>25.85591895713836</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.8568154809804</v>
+        <v>32.58939630024571</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>3.240712029807554</v>
+        <v>7.822499243092945</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>52.60528281754851</v>
+        <v>48.24818389931139</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.42315383169142</v>
+        <v>58.32212151504966</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>58.67229067611223</v>
+        <v>52.52865305512449</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.85148659084072</v>
+        <v>63.50044343515625</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>76.21427091955132</v>
+        <v>69.31943939348264</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.6823772746664</v>
+        <v>15.85631415710662</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>59.83649693586187</v>
+        <v>51.11503792777977</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>62.96942420620937</v>
+        <v>56.33400863602796</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.442398155836923</v>
+        <v>9.614217229371128</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>11.13245186655716</v>
+        <v>11.91192793999994</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.66353322281531</v>
+        <v>16.95853598776663</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.3888285868499608</v>
+        <v>0.8191230121722128</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>9.048914627149021</v>
+        <v>10.12162616135801</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.47828954726747</v>
+        <v>13.50607179713054</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>8.190280883289486</v>
+        <v>6.32914351089423</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.56730754498032</v>
+        <v>22.48846311746413</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.72381650999174</v>
+        <v>25.00447308418467</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.44065969024058</v>
+        <v>17.82271119070465</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.97164008595431</v>
+        <v>22.92344671217925</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.26825907960619</v>
+        <v>26.36549138876039</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.42021155016645</v>
+        <v>9.838862434029004</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>13.83970098216304</v>
+        <v>12.2024993196699</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.3691259971372</v>
+        <v>18.09423006732763</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.076091498484317</v>
+        <v>3.319420642669595</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>8.234306958793692</v>
+        <v>9.516291807661567</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.43655927432442</v>
+        <v>17.35383317479906</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-5.070540514123998</v>
+        <v>-2.976337324667785</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-0.2397798222218093</v>
+        <v>1.314724938886041</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>11.57819427129386</v>
+        <v>11.62227831699346</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-5.44460141657671</v>
+        <v>-3.421272417567376</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>6.735172262956688</v>
+        <v>10.07724247975344</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.50327811874889</v>
+        <v>23.09857180988438</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>8.563721582588659</v>
+        <v>10.17961421386206</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.76798730296114</v>
+        <v>18.11484696947762</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.34272191220299</v>
+        <v>28.65117224160096</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-2.621864239784433</v>
+        <v>-2.250537151987025</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>11.18529271938073</v>
+        <v>9.986737301103716</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.64851782250169</v>
+        <v>18.86600755128571</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.67247490421522</v>
+        <v>15.35054042108188</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.91935338267935</v>
+        <v>23.48135900052276</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.71450443251045</v>
+        <v>31.19907046846926</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.647975220026815</v>
+        <v>-0.7208403838467952</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>12.59224628055049</v>
+        <v>11.32426002431028</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.52577327777353</v>
+        <v>20.06387035082295</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.729074716548539</v>
+        <v>5.645049404819048</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.77535825750745</v>
+        <v>29.12400032596577</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>46.75134710040511</v>
+        <v>42.97671217513096</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.16787543810301</v>
+        <v>31.31544429078399</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.82937501340645</v>
+        <v>39.42814645137273</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>55.79588758257522</v>
+        <v>50.88741694826099</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>15.24898353975934</v>
+        <v>10.26193203927857</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>34.61449644976164</v>
+        <v>29.92467545075496</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>40.62353121403108</v>
+        <v>36.77112705485099</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.316725012787415</v>
+        <v>2.916882618108758</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>1.397787179242552</v>
+        <v>2.288531254645605</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.077552407435679</v>
+        <v>4.326825902993651</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.785745793619551</v>
+        <v>-1.072207099685176</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.267119773730382</v>
+        <v>1.032022846085948</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-0.8560041519966752</v>
+        <v>2.442476141033897</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.574391120094003</v>
+        <v>1.260399335801377</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.670378274039312</v>
+        <v>8.67973575642328</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.791466155173662</v>
+        <v>8.541212609938455</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>2.429403330265085</v>
+        <v>3.190684114776019</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.412265141349142</v>
+        <v>3.036160693834777</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.76292208147413</v>
+        <v>7.349625367223677</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1.807387068872124</v>
+        <v>1.146268244393365</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1.409606877447409</v>
+        <v>-1.353872193300255</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>1.064709083764416</v>
+        <v>1.627308674675355</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.7584508923948512</v>
+        <v>0.8979732234041826</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.735146599149317</v>
+        <v>3.567485670392006</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.91361968491049</v>
+        <v>6.251514681831658</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-3.326060476754538</v>
+        <v>-1.952223284740999</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-4.065061873440065</v>
+        <v>-2.334050960745852</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.373006483458266</v>
+        <v>2.692330634370176</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-3.025410461097653</v>
+        <v>-4.832105720228512</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-0.3601918415191179</v>
+        <v>1.401339703297253</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>3.602886333516761</v>
+        <v>6.154081498389044</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1.076058402923504</v>
+        <v>0.5900000711192455</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>2.739133623611536</v>
+        <v>3.987313642326139</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.458202753675437</v>
+        <v>9.851279500856576</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-3.640711724045453</v>
+        <v>-5.748083349496294</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>0.4542667537006082</v>
+        <v>0.01585097932866475</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.366954505479018</v>
+        <v>2.879517835996822</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.0956584975231</v>
+        <v>16.05529642978816</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.71618790305168</v>
+        <v>19.27737542888314</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.51600884921688</v>
+        <v>23.18366325899729</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-0.3440123258885528</v>
+        <v>1.037562750218903</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>8.178725950845784</v>
+        <v>7.763298235894929</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.21997336889257</v>
+        <v>12.54960960550999</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.998376751264601</v>
+        <v>6.49510494704332</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.99789553710858</v>
+        <v>20.93116178233702</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.92493527153044</v>
+        <v>27.96775099386771</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.7566142649807</v>
+        <v>23.44586669830559</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.56342550174713</v>
+        <v>27.02450802720934</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>35.49985845595844</v>
+        <v>35.47004736721115</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.30640311182419</v>
+        <v>9.257138308091111</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.37999528908125</v>
+        <v>20.72565195287493</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.28742171360502</v>
+        <v>23.78691235731673</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.21912459299378</v>
+        <v>18.52712228428922</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.40896116547344</v>
+        <v>26.34387273293505</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.25815913592491</v>
+        <v>33.54952138186586</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.9529298640193176</v>
+        <v>4.864528247259464</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.90920098165842</v>
+        <v>21.15248363549599</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.11772509344402</v>
+        <v>23.77586232244968</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.276262789612378</v>
+        <v>13.16512702861583</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.95304477417174</v>
+        <v>39.38003727745834</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.10915812531173</v>
+        <v>42.86643047243784</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.652548200513</v>
+        <v>35.87717700328369</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>46.45104934709219</v>
+        <v>41.72193691610215</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.55239000720978</v>
+        <v>43.74229155027317</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.38438022980453</v>
+        <v>26.83891724254676</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.48794177917966</v>
+        <v>36.03555435557524</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>47.70885152453629</v>
+        <v>43.48312778429117</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.69950717118038</v>
+        <v>11.17089622735368</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.60131865607905</v>
+        <v>21.48506989662021</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.6464512999039</v>
+        <v>27.46079055497969</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2.973232015506909</v>
+        <v>-2.635793076689275</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.558451469137609</v>
+        <v>5.698197410344786</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>11.08112716618129</v>
+        <v>10.52101708583528</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.6606492791564129</v>
+        <v>0.7621530597176189</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.1382352784687</v>
+        <v>21.79836267215414</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.31566971992965</v>
+        <v>30.33234441167888</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.17491597976939</v>
+        <v>23.03714141454615</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>31.9807452747516</v>
+        <v>32.94109961541892</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>35.16397336374472</v>
+        <v>36.0797589593375</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.97254317705246</v>
+        <v>9.884214209160742</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.65482870333219</v>
+        <v>27.67216933609973</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.81657066406549</v>
+        <v>31.82914342272507</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.12276410463529</v>
+        <v>20.04380331913814</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.84432764919674</v>
+        <v>31.42895396180788</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>44.86085711180726</v>
+        <v>39.0322402616429</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.4552033631919983</v>
+        <v>1.420645579058075</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.90008943881629</v>
+        <v>16.61393835483287</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.799547026056</v>
+        <v>21.94458924035118</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.238726495452891</v>
+        <v>8.639454727337647</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>40.94762869783344</v>
+        <v>36.63736900052474</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>52.18596094318124</v>
+        <v>48.28018925673143</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>51.67631225858034</v>
+        <v>45.50310737028801</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>58.52247805054827</v>
+        <v>53.97426525081282</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>62.07295330142489</v>
+        <v>59.00079654794057</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.97372816755068</v>
+        <v>20.52270555617437</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>48.98926806012445</v>
+        <v>43.36826340438211</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>52.95888753035133</v>
+        <v>50.13074457964228</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.64691729323427</v>
+        <v>15.16005502626909</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.16080666681069</v>
+        <v>31.13038910305338</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>41.01657433692955</v>
+        <v>37.69157604465342</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.428405343085764</v>
+        <v>6.629945976598684</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.56581229484181</v>
+        <v>30.61718245840438</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.48305709521312</v>
+        <v>34.55330307595024</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.61158740700265</v>
+        <v>13.72016165455485</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>56.65482267739875</v>
+        <v>51.17228831310464</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>64.46498177366038</v>
+        <v>56.04904036856738</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>55.43517893455256</v>
+        <v>49.28440941634763</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>58.15585013111914</v>
+        <v>52.57069444798253</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>63.5341137329529</v>
+        <v>55.89637920702371</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.31019646515909</v>
+        <v>14.54982064841982</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>43.27435080930108</v>
+        <v>37.93566653225186</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>54.50681287084603</v>
+        <v>48.74686521978447</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.12196372760498</v>
+        <v>10.54791380354295</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.99039829931647</v>
+        <v>27.32365572635262</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.70931303948475</v>
+        <v>33.45417593523122</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0.3554415628864014</v>
+        <v>2.212751306279664</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.7546087587916</v>
+        <v>18.89453537772953</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.566941990728</v>
+        <v>26.47256622384905</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1.001922453974629</v>
+        <v>2.924380182429172</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.15624090696306</v>
+        <v>34.97454206256161</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.61034084292671</v>
+        <v>43.97776347963465</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.52524108939699</v>
+        <v>36.98608311412056</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.04751451665737</v>
+        <v>46.35493729748481</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>55.15493160287953</v>
+        <v>50.95629419686123</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>6.604810874462302</v>
+        <v>5.39904055336191</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.61188465775774</v>
+        <v>34.81119168785423</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>48.53606322775902</v>
+        <v>43.82275890912111</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>9.279532753326816</v>
+        <v>11.09065804297483</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.33242264175535</v>
+        <v>30.17976911357173</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.58368706077432</v>
+        <v>38.53053321131823</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1.980334645840365</v>
+        <v>-0.762766798437184</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.96279250261822</v>
+        <v>22.96316890689651</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.24211835369955</v>
+        <v>30.96950073713275</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-0.6543103862561814</v>
+        <v>1.510740336229563</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.48677182803291</v>
+        <v>41.34677289258721</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>61.87611676335536</v>
+        <v>56.22553566463604</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.51453342753108</v>
+        <v>48.80849018919826</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.94035913682985</v>
+        <v>58.96107294871466</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.79121098665175</v>
+        <v>68.62859992284203</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>4.663043095389554</v>
+        <v>4.81807627466657</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>50.46319474891401</v>
+        <v>43.86803412050636</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.29968169554127</v>
+        <v>54.63226090684068</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>14.88919285389018</v>
+        <v>13.68030076259819</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.62577878279312</v>
+        <v>25.14564578890979</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.0809063744138</v>
+        <v>33.657055070624</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>3.911843437261155</v>
+        <v>5.902114287835364</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.52429131271855</v>
+        <v>33.79223581125804</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.66570324225717</v>
+        <v>36.1907878623719</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.539637759664359</v>
+        <v>12.74783249621694</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.60293914345624</v>
+        <v>51.01414408372212</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>63.73661857133487</v>
+        <v>54.42999131550941</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>44.36224853700156</v>
+        <v>40.02108887400819</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.11037031111251</v>
+        <v>42.79228033090284</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>50.11671995078692</v>
+        <v>46.31729726334083</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>23.07209839657753</v>
+        <v>18.94039496013657</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.07995387330998</v>
+        <v>32.97593823676986</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>56.17198720396655</v>
+        <v>46.88775196721999</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>16.64042064973893</v>
+        <v>12.11569751908175</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.47020981049914</v>
+        <v>29.2635129550061</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.69184850104399</v>
+        <v>34.49557609397372</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-0.3592400453957296</v>
+        <v>-0.1814449041301387</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>23.57962963811761</v>
+        <v>20.64217419976993</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.42426297772097</v>
+        <v>25.07083765991987</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.4622238103993759</v>
+        <v>2.024371708917158</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.76757213255762</v>
+        <v>38.62670464677867</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.3733781991797</v>
+        <v>47.38038413957516</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.45329796470971</v>
+        <v>37.10753332722961</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>53.83601441978652</v>
+        <v>48.3771614076496</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.57160669407357</v>
+        <v>53.34293326632094</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.63339139426377</v>
+        <v>9.095924193169417</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.16428478545085</v>
+        <v>38.62730264645392</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>51.63719203243104</v>
+        <v>46.4294311633784</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.29943214111831</v>
+        <v>14.21248372429779</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.35423642751577</v>
+        <v>31.9031919363147</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.02441236457818</v>
+        <v>37.90271847692402</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-0.4660813567775826</v>
+        <v>-0.1591768590220077</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.63705987088635</v>
+        <v>25.69082096609712</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.50085851228022</v>
+        <v>30.03732773918577</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1.032771456885477</v>
+        <v>3.100274131025266</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.92921877664634</v>
+        <v>44.89631506796803</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>62.55651611673915</v>
+        <v>56.81267685965284</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.50496174447294</v>
+        <v>51.104470365322</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.99311618764736</v>
+        <v>61.01791555899973</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>73.05851729875451</v>
+        <v>68.23395302147199</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>9.960717869721128</v>
+        <v>10.01077326346188</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>54.12873649963368</v>
+        <v>47.4364072666674</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>64.76749936587839</v>
+        <v>58.3719585029993</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.71966004432326</v>
+        <v>20.86837297759791</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.78452087854608</v>
+        <v>27.37460236934204</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>38.85948011569547</v>
+        <v>35.1713413275322</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.17261490131744</v>
+        <v>19.2242949661601</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>50.14521713892532</v>
+        <v>43.1784114424766</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>53.30152790702188</v>
+        <v>45.35572887107564</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.81186772262809</v>
+        <v>18.76308350513643</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>54.99235672488973</v>
+        <v>50.39188942507562</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.84392615106059</v>
+        <v>54.48787125424219</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>44.92833632384554</v>
+        <v>41.08316539529979</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>52.15446719108908</v>
+        <v>45.66267917376366</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>52.36456081203964</v>
+        <v>48.20341493932133</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.57837277772819</v>
+        <v>27.94407757723459</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.47058163571341</v>
+        <v>32.67766633285549</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>51.43084623852521</v>
+        <v>46.02957144014105</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.52228365860574</v>
+        <v>21.70009412087048</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.29868490495403</v>
+        <v>32.95397634196261</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.73507477710358</v>
+        <v>38.41113318260834</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.40281783658073</v>
+        <v>24.09858571147223</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>46.74874083995591</v>
+        <v>38.64255017050733</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>52.74687677292503</v>
+        <v>43.24604555130635</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>8.464847207003437</v>
+        <v>11.09429185489711</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.47248444561453</v>
+        <v>40.26143260448572</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>53.46677051526139</v>
+        <v>50.37543930350577</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>42.98213309732719</v>
+        <v>38.54010287983154</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.81455590254212</v>
+        <v>50.80371168535959</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>56.5458330190183</v>
+        <v>55.00071872799069</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.14106818897046</v>
+        <v>19.53957546801966</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>43.58639596297851</v>
+        <v>38.86080075014864</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.25571704010844</v>
+        <v>48.23571596931023</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.66331435095324</v>
+        <v>22.1874646826086</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.10692743130511</v>
+        <v>33.97093313445911</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.32257670845028</v>
+        <v>39.14742029469482</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.08844803410677</v>
+        <v>23.10103385747086</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.69693509218871</v>
+        <v>42.57303263571373</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.54935026533445</v>
+        <v>45.25095132667934</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>10.92516801887574</v>
+        <v>12.87040212802647</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>52.63544829908564</v>
+        <v>47.64104091571426</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>64.09236503059796</v>
+        <v>59.26619772549764</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.59397704174517</v>
+        <v>54.14067219422311</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>71.26513365230156</v>
+        <v>63.56789576393176</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>75.43787579196912</v>
+        <v>69.65300341724586</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.47048787469638</v>
+        <v>20.95322152692845</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>50.55676365194786</v>
+        <v>47.0265754555963</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>66.81056966982618</v>
+        <v>59.67255745827812</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.892766704847087</v>
+        <v>8.225828449355838</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.57802414304849</v>
+        <v>24.50916341059525</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.63533498822004</v>
+        <v>32.50403290658129</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.05406127259820437</v>
+        <v>2.145491950562089</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.47270725400953</v>
+        <v>24.97351435352986</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.40060945485798</v>
+        <v>27.53208665648837</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1.462971278453399</v>
+        <v>8.474090600252758</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.39613772694945</v>
+        <v>46.39742682730131</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.20105063894074</v>
+        <v>50.78529353734268</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.40311673261447</v>
+        <v>44.71202007205804</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.34547344268745</v>
+        <v>48.8168886256841</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>56.13242964107172</v>
+        <v>50.70294895972758</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3.098672781968894</v>
+        <v>6.909106100324589</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.67393514087696</v>
+        <v>33.30864907046043</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>46.01499838201667</v>
+        <v>41.506781979681</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.922103899725045</v>
+        <v>7.264094245120045</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.17849009078477</v>
+        <v>25.66965423710327</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.86761002461461</v>
+        <v>30.73182403546034</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-0.5165653730016935</v>
+        <v>0.2489059423623061</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.82353456153336</v>
+        <v>18.92822563341067</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.70473112775762</v>
+        <v>23.03749161301355</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-0.5226843051785472</v>
+        <v>0.4569521294554448</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.61324042489758</v>
+        <v>34.06009078709547</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>45.0793984347642</v>
+        <v>41.23665682016788</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>41.40374123061238</v>
+        <v>36.33888080513044</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.35432951027583</v>
+        <v>44.95090196516251</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.22914534190896</v>
+        <v>48.21690038945617</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.023732373143318</v>
+        <v>1.396724101976393</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.22574879137473</v>
+        <v>34.32088453971541</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>45.40213026605512</v>
+        <v>40.98601278449896</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.631105310209669</v>
+        <v>8.942084676167688</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.60587942727986</v>
+        <v>28.33821675677679</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.93114906803581</v>
+        <v>36.01893189884228</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1.306068796387176</v>
+        <v>-0.3111341075365601</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.19489096532535</v>
+        <v>22.30562933952598</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.38803192720579</v>
+        <v>27.33279792746739</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-0.8352312832038642</v>
+        <v>1.129529371074117</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.28406987374385</v>
+        <v>41.24170731128622</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.92422542272182</v>
+        <v>52.72808770812269</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>57.18089837860308</v>
+        <v>50.66209959367933</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>67.21247218959289</v>
+        <v>60.27931918453565</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>73.79197131745941</v>
+        <v>66.71628671824757</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1.740211001710637</v>
+        <v>2.376099220625459</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>50.1784403689382</v>
+        <v>43.78698770286216</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>58.98964807127305</v>
+        <v>53.13685513531097</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.144422889411434</v>
+        <v>7.533767668050157</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.98069003629934</v>
+        <v>11.48834073477222</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.12743917038255</v>
+        <v>16.52649726820164</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-3.211868551218895</v>
+        <v>-1.935492929703571</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>11.66489310643368</v>
+        <v>11.45447845153161</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>13.19421098742534</v>
+        <v>12.85508251034519</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>7.546016940939282</v>
+        <v>3.58945774290757</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.46506529549223</v>
+        <v>21.63966183132996</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.87022723803657</v>
+        <v>24.79730586704331</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.66392592147081</v>
+        <v>17.95939586804123</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.47258926943108</v>
+        <v>21.38681424518061</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.01899559130889</v>
+        <v>24.10012385910733</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.638098321153223</v>
+        <v>5.20418968326339</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>12.41911170441435</v>
+        <v>11.03013733185145</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.05485231149035</v>
+        <v>16.80859178262978</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.245741121016387</v>
+        <v>6.67616853698912</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>21.73971131077684</v>
+        <v>19.76673900827192</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.62828560523113</v>
+        <v>27.07761551015071</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-1.901889064724156</v>
+        <v>-0.6354619384278273</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>12.74277105738011</v>
+        <v>12.09858022528915</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.60478192438232</v>
+        <v>19.162369311923</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-0.8717642654709898</v>
+        <v>0.3133645207448126</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.11891600632774</v>
+        <v>23.75021050920472</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.75135186337527</v>
+        <v>36.41897109163734</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.56440510606263</v>
+        <v>24.24611453604912</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.03702094887588</v>
+        <v>35.40653049025036</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.78487719197321</v>
+        <v>41.3903752540002</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>0.1319292283936448</v>
+        <v>0.3711637584564791</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.98663891923947</v>
+        <v>24.11390890803296</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>37.39583433378851</v>
+        <v>32.78642103704782</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>11.91447478738751</v>
+        <v>12.1709599322608</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.99077312299682</v>
+        <v>25.27679898660133</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.53904812901359</v>
+        <v>32.43048551145041</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>0.03783565287188395</v>
+        <v>0.5340693629537689</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>21.23899954600219</v>
+        <v>18.30683391617089</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.44062598338483</v>
+        <v>23.57804630250835</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>4.870172154234371</v>
+        <v>4.776250876177244</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>37.29570093587649</v>
+        <v>32.84039338097549</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.53992855427892</v>
+        <v>46.098380673731</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>46.29589260390748</v>
+        <v>39.90045349178791</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>54.55953263917353</v>
+        <v>48.56171408036384</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>58.96343569781062</v>
+        <v>54.26697472746651</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>8.778252103909697</v>
+        <v>6.624634169050758</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.69425816975956</v>
+        <v>35.11841488152346</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.72170453443969</v>
+        <v>44.30193735420311</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>9.336602256138193</v>
+        <v>9.778728612703482</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>10.46966911950393</v>
+        <v>13.86110264441709</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.46017166580278</v>
+        <v>20.96611831615149</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-2.964331298042538</v>
+        <v>2.396975290949509</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.55187630842578</v>
+        <v>19.33210229795291</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.37971920307611</v>
+        <v>22.26346398757922</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>5.59874644853031</v>
+        <v>6.95521950587348</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.56137113390271</v>
+        <v>30.79079272886246</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.3802172699724</v>
+        <v>35.86687041546254</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.77568580191869</v>
+        <v>25.54003660657406</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.92943804410615</v>
+        <v>31.42179950215155</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>38.91544255550669</v>
+        <v>35.31310631609543</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>11.02623880261234</v>
+        <v>11.50113868999071</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.441832020683</v>
+        <v>17.67661188314307</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.73832838244545</v>
+        <v>29.47665812399521</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.402636367291965</v>
+        <v>8.867611064692788</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.97447375455058</v>
+        <v>19.8697222949018</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.38758317987675</v>
+        <v>28.46060971641716</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>3.160320966874419</v>
+        <v>3.807691462300088</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>14.16392287453585</v>
+        <v>14.79993688504066</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.29413631765537</v>
+        <v>24.16436524265601</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-1.04284252512884</v>
+        <v>0.2068305990427532</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.16439330475646</v>
+        <v>23.47801234457323</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.29930123103684</v>
+        <v>38.36221835341751</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.45112009369293</v>
+        <v>23.17285755444243</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.40711893727594</v>
+        <v>37.3047867744787</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.81758792132455</v>
+        <v>44.96694746691304</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-0.3228106090792942</v>
+        <v>2.707276095832821</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.51988629590169</v>
+        <v>24.15305319153678</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>38.2909992320129</v>
+        <v>34.7117524180716</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>9.485893357387646</v>
+        <v>9.99200043545093</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.94025571022025</v>
+        <v>20.56373378734183</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.25339683364348</v>
+        <v>28.24551154609676</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>0.640831603517956</v>
+        <v>1.419058661122058</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>17.90778980284347</v>
+        <v>16.75183499756183</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.79728803827203</v>
+        <v>23.56839928344748</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>0.4105539857806093</v>
+        <v>0.5476137673546866</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.70409451211817</v>
+        <v>28.77698018895792</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.94027292070299</v>
+        <v>44.23667508571249</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.09435760990632</v>
+        <v>38.98732613854214</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.49429902215245</v>
+        <v>48.4105352301726</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>62.33537047471667</v>
+        <v>57.09354542080305</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>0.2920422466901478</v>
+        <v>4.331101549421795</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.51459283992328</v>
+        <v>30.05336117156602</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>51.34909267548199</v>
+        <v>45.18530357517842</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.91897895620965</v>
+        <v>17.9623168444165</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.16670898283804</v>
+        <v>26.62192140332449</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.01298124417323</v>
+        <v>34.81911697148853</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.454993836555062</v>
+        <v>6.788381987176553</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>42.78481637269228</v>
+        <v>37.06162024207586</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.93493673355921</v>
+        <v>40.45908060225588</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.41279162983684</v>
+        <v>16.09997999343023</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.28125513980481</v>
+        <v>55.42474997273087</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>66.29135748296741</v>
+        <v>58.54702346076905</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>47.01068239164925</v>
+        <v>42.76443702627054</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>56.22998620313234</v>
+        <v>49.5953047194288</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>57.66674949494313</v>
+        <v>51.8691631686084</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.85032409560841</v>
+        <v>30.3386069292679</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.54856637467991</v>
+        <v>36.09985457926806</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>63.50974619633256</v>
+        <v>55.22086401926632</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.50271001812095</v>
+        <v>22.30798774546098</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.51735107965176</v>
+        <v>32.93500327103793</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>39.37814294043314</v>
+        <v>37.2626076307349</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>2.971528255277505</v>
+        <v>5.122130372924644</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.92426638254582</v>
+        <v>24.84467565327774</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.84238294409993</v>
+        <v>29.69476367732874</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>5.099508425892129</v>
+        <v>6.983456555438853</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>45.52216735716707</v>
+        <v>41.48552492541119</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>54.21585413932958</v>
+        <v>49.66553558460447</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>46.68547315259443</v>
+        <v>41.47312500392605</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.93862028214255</v>
+        <v>48.32697233511669</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>57.75402049602107</v>
+        <v>53.42574380596376</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.37648033560642</v>
+        <v>19.41192864272794</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.92440640552926</v>
+        <v>40.17886947649899</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>52.97027660290934</v>
+        <v>48.1906116183648</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.27966082560206</v>
+        <v>21.13824164909818</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.77359810168292</v>
+        <v>33.5659015236064</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>40.82277547130478</v>
+        <v>39.22199667158441</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1.816670932987506</v>
+        <v>3.166728833925422</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.11673167852518</v>
+        <v>27.55934747253096</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>35.45491652070057</v>
+        <v>32.5443134664755</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>5.088925175703238</v>
+        <v>7.726316074454473</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>54.33897094377372</v>
+        <v>49.40769982839277</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>67.05646306261249</v>
+        <v>60.80522082504179</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.85892625875318</v>
+        <v>52.99471661429776</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>68.92959616962389</v>
+        <v>62.24376780062096</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>72.78518713922577</v>
+        <v>67.48765968384222</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>21.36181735592529</v>
+        <v>18.54292836346262</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>52.8332753602364</v>
+        <v>47.8690639668954</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>66.74158033478579</v>
+        <v>59.90083588260709</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>5.749812194682846</v>
+        <v>6.435494728704249</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>24.48795231064658</v>
+        <v>23.29414919685407</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>32.30178765896493</v>
+        <v>30.12242672411327</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>0.006464510944415025</v>
+        <v>1.017690415754188</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.07705214795504</v>
+        <v>24.90079954856964</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.74195500246997</v>
+        <v>24.60905310126264</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>1.197530936122064</v>
+        <v>5.847634979939308</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>47.04737203006401</v>
+        <v>44.14306359927883</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>51.23597529005788</v>
+        <v>47.93975274537502</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.88044192052807</v>
+        <v>41.91966989529358</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.78111148269416</v>
+        <v>47.57555254604087</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>50.87051145401517</v>
+        <v>46.63256150411449</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>2.498369085258879</v>
+        <v>3.81320351012079</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.35499331723445</v>
+        <v>29.99390706430994</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>42.34405177174968</v>
+        <v>37.87235565103804</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.726343069308605</v>
+        <v>8.904149942833925</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.16742601459589</v>
+        <v>27.94626855821479</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.97997943005007</v>
+        <v>32.67882831763395</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>0.5403054848913911</v>
+        <v>2.001645816346258</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.52689050416546</v>
+        <v>20.54178965911411</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.35444342584383</v>
+        <v>24.18859302559616</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>0.9631585939480019</v>
+        <v>2.493104097579021</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>40.60453218450161</v>
+        <v>36.61540738182897</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>50.08559748038732</v>
+        <v>45.53363968091416</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.21510733174678</v>
+        <v>39.46724718803654</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>53.66734252759899</v>
+        <v>48.42498972802364</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.98604399081997</v>
+        <v>49.69427120885708</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2.786083960062598</v>
+        <v>2.462403364950401</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.36821458257136</v>
+        <v>35.80771277452895</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>48.50332168421759</v>
+        <v>43.4064399027139</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>8.527142593963095</v>
+        <v>9.201769632030924</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.58350898417364</v>
+        <v>29.00501226669875</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.20326530687351</v>
+        <v>36.43035385177163</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1.003819897696591</v>
+        <v>-0.07777195720323959</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.34670139980661</v>
+        <v>23.09659775663469</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.19445049529733</v>
+        <v>26.02504384187305</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-0.7519180531400167</v>
+        <v>0.8660290250357221</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>44.64751112961863</v>
+        <v>40.7588942266574</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>56.45691355143342</v>
+        <v>52.56455249909892</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>56.18310672442179</v>
+        <v>49.39217699151146</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>66.90781666627339</v>
+        <v>59.36858576483088</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>71.65156778093714</v>
+        <v>64.71993861963398</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>1.213239665977255</v>
+        <v>0.6682071742534745</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>48.80688532620617</v>
+        <v>42.02779628644814</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>58.73824137329942</v>
+        <v>52.33444613778551</v>
       </c>
     </row>
   </sheetData>
